--- a/StockingProblemProject/Testes/Problema3/testes_tamanho_torneio/statistic_average_fitness_avaliado.xlsx
+++ b/StockingProblemProject/Testes/Problema3/testes_tamanho_torneio/statistic_average_fitness_avaliado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruna Leitão\Desktop\Escola\IA\IAProject_StockingProblem\StockingProblemProject\Testes\Problema3\testes_tamanho_torneio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itandmore/Documents/GitHub/IAProject_StockingProblem/StockingProblemProject/Testes/Problema3/testes_tamanho_torneio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75630C3B-25F2-40C7-9C41-6928F84CC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B5A94B-2099-154A-83F0-41B7DC16AE28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3statistic_average_fitness_aval" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1824,19 +1824,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="1.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>150</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>4.9832118156867402</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>150</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>6.8622153857191002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>150</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>7.3090628674269897</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>150</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>6.7052218456960802</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>150</v>
       </c>
@@ -2010,8 +2011,8 @@
         <v>5.2401908362196101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>340.74</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>343.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>343.76</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>344.8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>344.98</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>

--- a/StockingProblemProject/Testes/Problema3/testes_tamanho_torneio/statistic_average_fitness_avaliado.xlsx
+++ b/StockingProblemProject/Testes/Problema3/testes_tamanho_torneio/statistic_average_fitness_avaliado.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruna Leitão\Desktop\Escola\IA\IAProject_StockingProblem\StockingProblemProject\Testes\Problema3\testes_tamanho_torneio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75630C3B-25F2-40C7-9C41-6928F84CC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB776861-BCA1-41B7-AADF-4A63BDEEB90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10212" windowHeight="9264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3statistic_average_fitness_aval" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1824,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
